--- a/biology/Médecine/Échelle_d'évaluation_globale_du_fonctionnement/Échelle_d'évaluation_globale_du_fonctionnement.xlsx
+++ b/biology/Médecine/Échelle_d'évaluation_globale_du_fonctionnement/Échelle_d'évaluation_globale_du_fonctionnement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_d%27%C3%A9valuation_globale_du_fonctionnement</t>
+          <t>Échelle_d'évaluation_globale_du_fonctionnement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Échelle d'Évaluation Globale du Fonctionnement (EGF, ou GAF en anglais, pour Global Assessment of Functioning) est une échelle numérique (allant de 0 à 100) utilisée en psychiatrie pour évaluer le fonctionnement psychologique, social et professionnel d’un individu. Il s’agit d’un continuum hypothétique allant de la santé mentale à la maladie.
 Cette échelle permet de coter l’axe V du DSM-IV.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelle_d%27%C3%A9valuation_globale_du_fonctionnement</t>
+          <t>Échelle_d'évaluation_globale_du_fonctionnement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Cotation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un score de 0 à 100 est attribué au patient en tenant compte uniquement du fonctionnement psychologique, social et professionnel actuel. Il ne faut pas inclure les altérations du fonctionnement causées par des limitations physiques ou environnementales.
 Afin de rendre compte de l'éventuelle variabilité au jour le jour, la cotation de l'EGF est parfois opérationnalisée comme étant le niveau de fonctionnement le plus bas pour la semaine précédente.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chelle_d%27%C3%A9valuation_globale_du_fonctionnement</t>
+          <t>Échelle_d'évaluation_globale_du_fonctionnement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>EGF / GAF</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>91–100
 Niveau supérieur de fonctionnement dans une grande variété d'activités. N'est jamais débordé par les problèmes rencontrés. Est recherché par autrui en raison de ses nombreuses qualités. Absence de symptômes.
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chelle_d%27%C3%A9valuation_globale_du_fonctionnement</t>
+          <t>Échelle_d'évaluation_globale_du_fonctionnement</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,11 +614,13 @@
           <t>Fiabilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les études réalisées par les chercheurs[1], la fiabilité inter-juges mesurée par le coefficient de corrélation intra-classes pour l’EGF s’étend de .61 à .91. L’erreur standard s’étend de 5 à 8 points.
-Cette même fiabilité inter-juges est clairement inférieure lorsqu’elle est calculée sur base des jugements des cliniciens[2] : de .54 à .65.
-Selon Luborsky &amp; Bachrach[3], la fiabilité de cotation de l’EGF est associée à l’expérience de l’évaluateur, à la connaissance et l’entrainement à l’utilisation de l’échelle.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les études réalisées par les chercheurs, la fiabilité inter-juges mesurée par le coefficient de corrélation intra-classes pour l’EGF s’étend de .61 à .91. L’erreur standard s’étend de 5 à 8 points.
+Cette même fiabilité inter-juges est clairement inférieure lorsqu’elle est calculée sur base des jugements des cliniciens : de .54 à .65.
+Selon Luborsky &amp; Bachrach, la fiabilité de cotation de l’EGF est associée à l’expérience de l’évaluateur, à la connaissance et l’entrainement à l’utilisation de l’échelle.
 Si les résultats obtenus par les chercheurs sont satisfaisants, ceux obtenus par les cliniciens invitent à une grande prudence d’interprétation.
 </t>
         </is>
